--- a/Practica 2/Documentos Oficiales/Verificacion/_Prueba de Peer Review checklists.xls.xlsx
+++ b/Practica 2/Documentos Oficiales/Verificacion/_Prueba de Peer Review checklists.xls.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JosueGomez\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JosueGomez\Desktop\DS2\Practica 2\Documentos Oficiales\Verificacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="2220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="204">
   <si>
     <t>Participantes - Rol</t>
   </si>
@@ -817,6 +817,21 @@
   </si>
   <si>
     <t>No se aplica los detalles de las vistas de las interfaces</t>
+  </si>
+  <si>
+    <t>No se de contemplo SOW</t>
+  </si>
+  <si>
+    <t>Aún sin especificar</t>
+  </si>
+  <si>
+    <t>No se elaboro dependencias entre requerimientos</t>
+  </si>
+  <si>
+    <t>Aún sin documentar</t>
+  </si>
+  <si>
+    <t>Análisis sin contemplar</t>
   </si>
 </sst>
 </file>
@@ -1894,94 +1909,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1999,39 +1960,93 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2595,7 +2610,7 @@
   <dimension ref="A1:DW88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67:H67"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2615,17 +2630,17 @@
     <row r="1" spans="1:127" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:127" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:127" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="148" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
       <c r="J3" s="41"/>
       <c r="K3" s="41"/>
       <c r="L3" s="41"/>
@@ -2746,14 +2761,14 @@
       <c r="DW3" s="41"/>
     </row>
     <row r="4" spans="1:127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
+      <c r="A4" s="142"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="143"/>
       <c r="I4" s="41"/>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
@@ -2875,16 +2890,16 @@
       <c r="DW4" s="41"/>
     </row>
     <row r="5" spans="1:127" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="95"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="145"/>
       <c r="I5" s="41"/>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
@@ -3013,12 +3028,12 @@
       <c r="C6" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="146" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
       <c r="H6" s="68">
         <v>43248</v>
       </c>
@@ -3150,12 +3165,12 @@
       <c r="C7" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="149" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
       <c r="H7" s="69" t="s">
         <v>65</v>
       </c>
@@ -3280,19 +3295,19 @@
       <c r="DW7" s="41"/>
     </row>
     <row r="8" spans="1:127" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="107"/>
+      <c r="B8" s="152"/>
       <c r="C8" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="103"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="131"/>
       <c r="H8" s="70">
         <v>1</v>
       </c>
@@ -3417,19 +3432,19 @@
       <c r="DW8" s="41"/>
     </row>
     <row r="9" spans="1:127" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="153" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="109"/>
+      <c r="B9" s="154"/>
       <c r="C9" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="103"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="131"/>
       <c r="H9" s="70">
         <v>1</v>
       </c>
@@ -3554,19 +3569,19 @@
       <c r="DW9" s="41"/>
     </row>
     <row r="10" spans="1:127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="100"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="D10" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="103"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="131"/>
       <c r="H10" s="71" t="s">
         <v>194</v>
       </c>
@@ -3691,19 +3706,19 @@
       <c r="DW10" s="41"/>
     </row>
     <row r="11" spans="1:127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="100"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="129" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="103"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="131"/>
       <c r="H11" s="72">
         <v>3</v>
       </c>
@@ -3828,15 +3843,15 @@
       <c r="DW11" s="41"/>
     </row>
     <row r="12" spans="1:127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="99"/>
-      <c r="B12" s="100"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="53"/>
-      <c r="D12" s="101" t="s">
+      <c r="D12" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="103"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131"/>
       <c r="H12" s="72">
         <v>3</v>
       </c>
@@ -3961,15 +3976,15 @@
       <c r="DW12" s="41"/>
     </row>
     <row r="13" spans="1:127" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="100"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="53"/>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="115"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="136"/>
       <c r="H13" s="70" t="s">
         <v>161</v>
       </c>
@@ -4094,15 +4109,15 @@
       <c r="DW13" s="41"/>
     </row>
     <row r="14" spans="1:127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="99"/>
-      <c r="B14" s="100"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="54"/>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="112"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="139"/>
       <c r="H14" s="73" t="s">
         <v>167</v>
       </c>
@@ -4227,15 +4242,15 @@
       <c r="DW14" s="41"/>
     </row>
     <row r="15" spans="1:127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="99"/>
-      <c r="B15" s="100"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="54"/>
-      <c r="D15" s="101" t="s">
+      <c r="D15" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="131"/>
       <c r="H15" s="74" t="s">
         <v>40</v>
       </c>
@@ -4360,15 +4375,15 @@
       <c r="DW15" s="41"/>
     </row>
     <row r="16" spans="1:127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="99"/>
-      <c r="B16" s="100"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="55"/>
-      <c r="D16" s="101" t="s">
+      <c r="D16" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="131"/>
       <c r="H16" s="74" t="s">
         <v>40</v>
       </c>
@@ -4493,15 +4508,15 @@
       <c r="DW16" s="41"/>
     </row>
     <row r="17" spans="1:127" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
-      <c r="B17" s="123"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="53"/>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="115"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="136"/>
       <c r="H17" s="75" t="s">
         <v>171</v>
       </c>
@@ -4626,16 +4641,16 @@
       <c r="DW17" s="41"/>
     </row>
     <row r="18" spans="1:127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="116" t="s">
+      <c r="A18" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="117"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
@@ -4766,10 +4781,10 @@
       <c r="C19" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="118" t="s">
+      <c r="D19" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="119"/>
+      <c r="E19" s="126"/>
       <c r="F19" s="57" t="s">
         <v>121</v>
       </c>
@@ -4911,10 +4926,10 @@
       <c r="C20" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="120" t="s">
+      <c r="D20" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="E20" s="121"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="77" t="s">
         <v>181</v>
       </c>
@@ -5056,10 +5071,10 @@
       <c r="C21" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="124" t="s">
+      <c r="D21" s="116" t="s">
         <v>159</v>
       </c>
-      <c r="E21" s="124"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="83" t="s">
         <v>183</v>
       </c>
@@ -5201,10 +5216,10 @@
       <c r="C22" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="120" t="s">
+      <c r="D22" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="121"/>
+      <c r="E22" s="115"/>
       <c r="F22" s="83" t="s">
         <v>185</v>
       </c>
@@ -5344,10 +5359,10 @@
       <c r="C23" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="121"/>
+      <c r="E23" s="115"/>
       <c r="F23" s="83" t="s">
         <v>187</v>
       </c>
@@ -5487,10 +5502,10 @@
       <c r="C24" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="121"/>
+      <c r="E24" s="115"/>
       <c r="F24" s="83" t="s">
         <v>191</v>
       </c>
@@ -5630,10 +5645,10 @@
       <c r="C25" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="120" t="s">
+      <c r="D25" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="121"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="83" t="s">
         <v>193</v>
       </c>
@@ -5769,8 +5784,8 @@
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
       <c r="C26" s="77"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="121"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="115"/>
       <c r="F26" s="83"/>
       <c r="G26" s="79"/>
       <c r="H26" s="56"/>
@@ -5898,8 +5913,8 @@
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
       <c r="C27" s="77"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="121"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="115"/>
       <c r="F27" s="83"/>
       <c r="G27" s="79"/>
       <c r="H27" s="56"/>
@@ -6027,8 +6042,8 @@
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
       <c r="C28" s="77"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="121"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="115"/>
       <c r="F28" s="83"/>
       <c r="G28" s="79"/>
       <c r="H28" s="56"/>
@@ -6282,16 +6297,16 @@
       <c r="DW29" s="41"/>
     </row>
     <row r="30" spans="1:127" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="128" t="s">
+      <c r="A30" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="B30" s="128"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="129"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="118"/>
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
       <c r="K30" s="41"/>
@@ -6416,17 +6431,17 @@
       <c r="A31" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="130" t="s">
+      <c r="B31" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="131" t="s">
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="130"/>
-      <c r="H31" s="132"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="121"/>
       <c r="I31" s="41"/>
       <c r="J31" s="41"/>
       <c r="K31" s="41"/>
@@ -6551,17 +6566,17 @@
       <c r="A32" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="133" t="s">
+      <c r="B32" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="134" t="s">
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124"/>
       <c r="I32" s="41"/>
       <c r="J32" s="41"/>
       <c r="K32" s="41"/>
@@ -6686,17 +6701,17 @@
       <c r="A33" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="B33" s="125" t="s">
+      <c r="B33" s="111" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="126" t="s">
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="G33" s="127"/>
-      <c r="H33" s="127"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
       <c r="I33" s="41"/>
       <c r="J33" s="41"/>
       <c r="K33" s="41"/>
@@ -6821,15 +6836,15 @@
       <c r="A34" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="B34" s="125"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="126" t="s">
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="G34" s="127"/>
-      <c r="H34" s="127"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
       <c r="I34" s="41"/>
       <c r="J34" s="41"/>
       <c r="K34" s="41"/>
@@ -6952,13 +6967,13 @@
     </row>
     <row r="35" spans="1:127" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="62"/>
-      <c r="B35" s="125"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="127"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
       <c r="I35" s="41"/>
       <c r="J35" s="41"/>
       <c r="K35" s="41"/>
@@ -7081,13 +7096,13 @@
     </row>
     <row r="36" spans="1:127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="62"/>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
       <c r="I36" s="41"/>
       <c r="J36" s="41"/>
       <c r="K36" s="41"/>
@@ -7210,13 +7225,13 @@
     </row>
     <row r="37" spans="1:127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="62"/>
-      <c r="B37" s="125"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="127"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
       <c r="I37" s="41"/>
       <c r="J37" s="41"/>
       <c r="K37" s="41"/>
@@ -7339,13 +7354,13 @@
     </row>
     <row r="38" spans="1:127" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="62"/>
-      <c r="B38" s="125"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="127"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
       <c r="I38" s="41"/>
       <c r="J38" s="41"/>
       <c r="K38" s="41"/>
@@ -7467,16 +7482,16 @@
       <c r="DW38" s="41"/>
     </row>
     <row r="39" spans="1:127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="141" t="s">
+      <c r="A39" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="141"/>
-      <c r="C39" s="141"/>
-      <c r="D39" s="141"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="141"/>
-      <c r="H39" s="142"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="110"/>
       <c r="I39" s="41"/>
       <c r="J39" s="41"/>
       <c r="K39" s="41"/>
@@ -7598,16 +7613,16 @@
       <c r="DW39" s="41"/>
     </row>
     <row r="40" spans="1:127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="136" t="s">
+      <c r="A40" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="136"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="136"/>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="137"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="105"/>
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
       <c r="K40" s="41"/>
@@ -7729,14 +7744,14 @@
       <c r="DW40" s="41"/>
     </row>
     <row r="41" spans="1:127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="136"/>
-      <c r="B41" s="136"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="137"/>
+      <c r="A41" s="104"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="105"/>
       <c r="I41" s="41"/>
       <c r="J41" s="41"/>
       <c r="K41" s="41"/>
@@ -7858,14 +7873,14 @@
       <c r="DW41" s="41"/>
     </row>
     <row r="42" spans="1:127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="136"/>
-      <c r="B42" s="136"/>
-      <c r="C42" s="136"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="137"/>
+      <c r="A42" s="104"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="105"/>
       <c r="I42" s="41"/>
       <c r="J42" s="41"/>
       <c r="K42" s="41"/>
@@ -7987,14 +8002,14 @@
       <c r="DW42" s="41"/>
     </row>
     <row r="43" spans="1:127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="136"/>
-      <c r="B43" s="136"/>
-      <c r="C43" s="136"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="137"/>
+      <c r="A43" s="104"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="105"/>
       <c r="I43" s="41"/>
       <c r="J43" s="41"/>
       <c r="K43" s="41"/>
@@ -8116,14 +8131,14 @@
       <c r="DW43" s="41"/>
     </row>
     <row r="44" spans="1:127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="136"/>
-      <c r="B44" s="136"/>
-      <c r="C44" s="136"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="137"/>
+      <c r="A44" s="104"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="105"/>
       <c r="I44" s="41"/>
       <c r="J44" s="41"/>
       <c r="K44" s="41"/>
@@ -8245,14 +8260,14 @@
       <c r="DW44" s="41"/>
     </row>
     <row r="45" spans="1:127" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="136"/>
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="137"/>
+      <c r="A45" s="104"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="105"/>
       <c r="I45" s="41"/>
       <c r="J45" s="41"/>
       <c r="K45" s="41"/>
@@ -8374,20 +8389,20 @@
       <c r="DW45" s="41"/>
     </row>
     <row r="46" spans="1:127" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="138" t="s">
+      <c r="A46" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="106"/>
       <c r="D46" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="E46" s="139" t="s">
+      <c r="E46" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="F46" s="140"/>
-      <c r="G46" s="140"/>
-      <c r="H46" s="140"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
       <c r="I46" s="41"/>
       <c r="J46" s="41"/>
       <c r="K46" s="41"/>
@@ -8509,18 +8524,18 @@
       <c r="DW46" s="41"/>
     </row>
     <row r="47" spans="1:127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="143" t="s">
+      <c r="A47" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="143"/>
-      <c r="C47" s="143"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
       <c r="D47" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="144"/>
-      <c r="F47" s="144"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="144"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
       <c r="I47" s="44"/>
       <c r="J47" s="41"/>
       <c r="K47" s="41"/>
@@ -8642,20 +8657,20 @@
       <c r="DW47" s="41"/>
     </row>
     <row r="48" spans="1:127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="143" t="s">
+      <c r="A48" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="143"/>
-      <c r="C48" s="143"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
       <c r="D48" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="144" t="s">
+      <c r="E48" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="F48" s="144"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="144"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
       <c r="I48" s="44"/>
       <c r="J48" s="41"/>
       <c r="K48" s="41"/>
@@ -8777,18 +8792,18 @@
       <c r="DW48" s="41"/>
     </row>
     <row r="49" spans="1:127" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="143" t="s">
+      <c r="A49" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="143"/>
-      <c r="C49" s="143"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="98"/>
       <c r="D49" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="144"/>
-      <c r="F49" s="144"/>
-      <c r="G49" s="144"/>
-      <c r="H49" s="144"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
       <c r="I49" s="44"/>
       <c r="J49" s="41"/>
       <c r="K49" s="41"/>
@@ -8910,18 +8925,18 @@
       <c r="DW49" s="41"/>
     </row>
     <row r="50" spans="1:127" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="143" t="s">
+      <c r="A50" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="143"/>
-      <c r="C50" s="143"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="98"/>
       <c r="D50" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="144"/>
-      <c r="F50" s="144"/>
-      <c r="G50" s="144"/>
-      <c r="H50" s="144"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="99"/>
       <c r="I50" s="44"/>
       <c r="J50" s="44"/>
       <c r="K50" s="44"/>
@@ -9043,18 +9058,18 @@
       <c r="DW50" s="44"/>
     </row>
     <row r="51" spans="1:127" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="143" t="s">
+      <c r="A51" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="B51" s="143"/>
-      <c r="C51" s="143"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="98"/>
       <c r="D51" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="144"/>
-      <c r="F51" s="144"/>
-      <c r="G51" s="144"/>
-      <c r="H51" s="144"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="99"/>
       <c r="I51" s="44"/>
       <c r="J51" s="44"/>
       <c r="K51" s="44"/>
@@ -9176,18 +9191,18 @@
       <c r="DW51" s="44"/>
     </row>
     <row r="52" spans="1:127" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="143" t="s">
+      <c r="A52" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="B52" s="143"/>
-      <c r="C52" s="143"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="98"/>
       <c r="D52" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="144"/>
-      <c r="F52" s="144"/>
-      <c r="G52" s="144"/>
-      <c r="H52" s="144"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="99"/>
       <c r="I52" s="44"/>
       <c r="J52" s="44"/>
       <c r="K52" s="44"/>
@@ -9309,18 +9324,18 @@
       <c r="DW52" s="44"/>
     </row>
     <row r="53" spans="1:127" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="143" t="s">
+      <c r="A53" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="143"/>
-      <c r="C53" s="143"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="98"/>
       <c r="D53" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
-      <c r="G53" s="144"/>
-      <c r="H53" s="144"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
       <c r="I53" s="44"/>
       <c r="J53" s="44"/>
       <c r="K53" s="44"/>
@@ -9442,18 +9457,20 @@
       <c r="DW53" s="44"/>
     </row>
     <row r="54" spans="1:127" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="143" t="s">
+      <c r="A54" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="143"/>
-      <c r="C54" s="143"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="98"/>
       <c r="D54" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E54" s="144"/>
-      <c r="F54" s="144"/>
-      <c r="G54" s="144"/>
-      <c r="H54" s="144"/>
+      <c r="E54" s="99" t="s">
+        <v>199</v>
+      </c>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="99"/>
       <c r="I54" s="44"/>
       <c r="J54" s="44"/>
       <c r="K54" s="44"/>
@@ -9575,18 +9592,18 @@
       <c r="DW54" s="44"/>
     </row>
     <row r="55" spans="1:127" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="143" t="s">
+      <c r="A55" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="B55" s="143"/>
-      <c r="C55" s="143"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="98"/>
       <c r="D55" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="144"/>
-      <c r="F55" s="144"/>
-      <c r="G55" s="144"/>
-      <c r="H55" s="144"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="99"/>
       <c r="I55" s="44"/>
       <c r="J55" s="44"/>
       <c r="K55" s="44"/>
@@ -9708,18 +9725,18 @@
       <c r="DW55" s="44"/>
     </row>
     <row r="56" spans="1:127" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="143" t="s">
+      <c r="A56" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="B56" s="143"/>
-      <c r="C56" s="143"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="98"/>
       <c r="D56" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E56" s="144"/>
-      <c r="F56" s="144"/>
-      <c r="G56" s="144"/>
-      <c r="H56" s="144"/>
+        <v>40</v>
+      </c>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="99"/>
       <c r="I56" s="44"/>
       <c r="J56" s="44"/>
       <c r="K56" s="44"/>
@@ -9841,18 +9858,18 @@
       <c r="DW56" s="44"/>
     </row>
     <row r="57" spans="1:127" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="143" t="s">
+      <c r="A57" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="B57" s="143"/>
-      <c r="C57" s="143"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="98"/>
       <c r="D57" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="144"/>
-      <c r="F57" s="144"/>
-      <c r="G57" s="144"/>
-      <c r="H57" s="144"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="99"/>
       <c r="I57" s="44"/>
       <c r="J57" s="44"/>
       <c r="K57" s="44"/>
@@ -9974,18 +9991,20 @@
       <c r="DW57" s="44"/>
     </row>
     <row r="58" spans="1:127" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="143" t="s">
+      <c r="A58" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="143"/>
-      <c r="C58" s="143"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="98"/>
       <c r="D58" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E58" s="144"/>
-      <c r="F58" s="144"/>
-      <c r="G58" s="144"/>
-      <c r="H58" s="144"/>
+        <v>44</v>
+      </c>
+      <c r="E58" s="99" t="s">
+        <v>201</v>
+      </c>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
       <c r="I58" s="44"/>
       <c r="J58" s="44"/>
       <c r="K58" s="44"/>
@@ -10107,18 +10126,18 @@
       <c r="DW58" s="44"/>
     </row>
     <row r="59" spans="1:127" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="143" t="s">
+      <c r="A59" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="B59" s="143"/>
-      <c r="C59" s="143"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="98"/>
       <c r="D59" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="144"/>
-      <c r="F59" s="144"/>
-      <c r="G59" s="144"/>
-      <c r="H59" s="144"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="99"/>
       <c r="I59" s="44"/>
       <c r="J59" s="44"/>
       <c r="K59" s="44"/>
@@ -10240,18 +10259,18 @@
       <c r="DW59" s="44"/>
     </row>
     <row r="60" spans="1:127" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="143" t="s">
+      <c r="A60" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="B60" s="143"/>
-      <c r="C60" s="143"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="98"/>
       <c r="D60" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="145"/>
-      <c r="F60" s="146"/>
-      <c r="G60" s="146"/>
-      <c r="H60" s="147"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="102"/>
+      <c r="H60" s="103"/>
       <c r="I60" s="44"/>
       <c r="J60" s="44"/>
       <c r="K60" s="44"/>
@@ -10373,18 +10392,18 @@
       <c r="DW60" s="44"/>
     </row>
     <row r="61" spans="1:127" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="143" t="s">
+      <c r="A61" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="B61" s="143"/>
-      <c r="C61" s="143"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="98"/>
       <c r="D61" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E61" s="144"/>
-      <c r="F61" s="144"/>
-      <c r="G61" s="144"/>
-      <c r="H61" s="144"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="99"/>
       <c r="I61" s="44"/>
       <c r="J61" s="44"/>
       <c r="K61" s="44"/>
@@ -10506,18 +10525,20 @@
       <c r="DW61" s="44"/>
     </row>
     <row r="62" spans="1:127" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="143" t="s">
+      <c r="A62" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="B62" s="143"/>
-      <c r="C62" s="143"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="98"/>
       <c r="D62" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E62" s="144"/>
-      <c r="F62" s="144"/>
-      <c r="G62" s="144"/>
-      <c r="H62" s="144"/>
+      <c r="E62" s="99" t="s">
+        <v>200</v>
+      </c>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
       <c r="I62" s="44"/>
       <c r="J62" s="44"/>
       <c r="K62" s="44"/>
@@ -10639,18 +10660,18 @@
       <c r="DW62" s="44"/>
     </row>
     <row r="63" spans="1:127" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="143" t="s">
+      <c r="A63" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="B63" s="143"/>
-      <c r="C63" s="143"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="98"/>
       <c r="D63" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="144"/>
-      <c r="F63" s="144"/>
-      <c r="G63" s="144"/>
-      <c r="H63" s="144"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="99"/>
       <c r="I63" s="44"/>
       <c r="J63" s="44"/>
       <c r="K63" s="44"/>
@@ -10772,18 +10793,18 @@
       <c r="DW63" s="44"/>
     </row>
     <row r="64" spans="1:127" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="143" t="s">
+      <c r="A64" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="B64" s="143"/>
-      <c r="C64" s="143"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="98"/>
       <c r="D64" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E64" s="144"/>
-      <c r="F64" s="144"/>
-      <c r="G64" s="144"/>
-      <c r="H64" s="144"/>
+        <v>40</v>
+      </c>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="99"/>
+      <c r="H64" s="99"/>
       <c r="I64" s="44"/>
       <c r="J64" s="44"/>
       <c r="K64" s="44"/>
@@ -10905,18 +10926,18 @@
       <c r="DW64" s="44"/>
     </row>
     <row r="65" spans="1:127" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="143" t="s">
+      <c r="A65" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="B65" s="143"/>
-      <c r="C65" s="143"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="98"/>
       <c r="D65" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="144"/>
-      <c r="F65" s="144"/>
-      <c r="G65" s="144"/>
-      <c r="H65" s="144"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="99"/>
+      <c r="H65" s="99"/>
       <c r="I65" s="44"/>
       <c r="J65" s="44"/>
       <c r="K65" s="44"/>
@@ -11038,18 +11059,18 @@
       <c r="DW65" s="44"/>
     </row>
     <row r="66" spans="1:127" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="143" t="s">
+      <c r="A66" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="B66" s="143"/>
-      <c r="C66" s="143"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="98"/>
       <c r="D66" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="154"/>
-      <c r="F66" s="154"/>
-      <c r="G66" s="154"/>
-      <c r="H66" s="154"/>
+      <c r="E66" s="100"/>
+      <c r="F66" s="100"/>
+      <c r="G66" s="100"/>
+      <c r="H66" s="100"/>
       <c r="I66" s="44"/>
       <c r="J66" s="44"/>
       <c r="K66" s="44"/>
@@ -11171,18 +11192,18 @@
       <c r="DW66" s="44"/>
     </row>
     <row r="67" spans="1:127" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="149" t="s">
+      <c r="A67" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="B67" s="150"/>
-      <c r="C67" s="151"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="95"/>
       <c r="D67" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="152"/>
-      <c r="F67" s="153"/>
-      <c r="G67" s="153"/>
-      <c r="H67" s="153"/>
+      <c r="E67" s="96"/>
+      <c r="F67" s="97"/>
+      <c r="G67" s="97"/>
+      <c r="H67" s="97"/>
       <c r="I67" s="44"/>
       <c r="J67" s="44"/>
       <c r="K67" s="44"/>
@@ -11304,18 +11325,20 @@
       <c r="DW67" s="44"/>
     </row>
     <row r="68" spans="1:127" s="15" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="149" t="s">
+      <c r="A68" s="93" t="s">
         <v>154</v>
       </c>
-      <c r="B68" s="150"/>
-      <c r="C68" s="151"/>
+      <c r="B68" s="94"/>
+      <c r="C68" s="95"/>
       <c r="D68" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E68" s="152"/>
-      <c r="F68" s="153"/>
-      <c r="G68" s="153"/>
-      <c r="H68" s="153"/>
+        <v>44</v>
+      </c>
+      <c r="E68" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="F68" s="97"/>
+      <c r="G68" s="97"/>
+      <c r="H68" s="97"/>
       <c r="I68" s="44"/>
       <c r="J68" s="44"/>
       <c r="K68" s="44"/>
@@ -11437,18 +11460,20 @@
       <c r="DW68" s="44"/>
     </row>
     <row r="69" spans="1:127" s="15" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="149" t="s">
+      <c r="A69" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="150"/>
-      <c r="C69" s="151"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="95"/>
       <c r="D69" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E69" s="152"/>
-      <c r="F69" s="153"/>
-      <c r="G69" s="153"/>
-      <c r="H69" s="153"/>
+      <c r="E69" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="F69" s="97"/>
+      <c r="G69" s="97"/>
+      <c r="H69" s="97"/>
       <c r="I69" s="44"/>
       <c r="J69" s="44"/>
       <c r="K69" s="44"/>
@@ -11980,18 +12005,106 @@
       <c r="A77" s="48"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="148"/>
-      <c r="B82" s="148"/>
+      <c r="A82" s="92"/>
+      <c r="B82" s="92"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="148"/>
-      <c r="B83" s="148"/>
+      <c r="A83" s="92"/>
+      <c r="B83" s="92"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="E60:H60"/>
     <mergeCell ref="A82:B83"/>
     <mergeCell ref="A69:C69"/>
     <mergeCell ref="E69:H69"/>
@@ -12013,94 +12126,6 @@
     <mergeCell ref="E63:H63"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="E64:H64"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:G9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="8">
